--- a/Resultados/Resumo_Geral_TSP_100ha.xlsx
+++ b/Resultados/Resumo_Geral_TSP_100ha.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://xmobotsaeroespacial-my.sharepoint.com/personal/paulo_acorinte_xmobots_com_br/Documents/Área de Trabalho/Repositorios/simulador/Resultados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://xmobotsaeroespacial-my.sharepoint.com/personal/enrico_abreu_xmobots_com_br/Documents/Área de Trabalho/Repositorios/simulador/Resultados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{747ADB09-5C4E-43F3-B92D-B09AC5D8D16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8F11402-6E2F-4482-8DB2-DAA51A8F7E7A}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="8_{747ADB09-5C4E-43F3-B92D-B09AC5D8D16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84B22CCC-B3CD-48D5-AF25-F9EDED1C01C7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7F131395-6D75-470D-B117-7A0C44280086}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7F131395-6D75-470D-B117-7A0C44280086}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="1" r:id="rId1"/>
@@ -239,7 +239,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t>Gráfico de Séries</a:t>
+              <a:t>TSP 100 ha</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -269,10 +269,28 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>_100ha_100ha_6%_12m_0_TSP\</c:v>
+            <c:v>100ha_6%_12m_TSP</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -451,10 +469,28 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>eld_100ha_100ha_10%_6m_0_TSP\</c:v>
+            <c:v>100ha_10%_6m_TSP</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -599,10 +635,28 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>ld_100ha_100ha_10%_12m_0_TSP\</c:v>
+            <c:v>100ha_10%_12m_TSP</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -815,10 +869,28 @@
           <c:idx val="7"/>
           <c:order val="7"/>
           <c:tx>
-            <c:v>ld_100ha_100ha_14%_12m_0_TSP\</c:v>
+            <c:v>100ha_14%_12m_TSP</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1031,10 +1103,28 @@
           <c:idx val="10"/>
           <c:order val="10"/>
           <c:tx>
-            <c:v>ld_100ha_100ha_18%_12m_0_TSP\</c:v>
+            <c:v>100ha_18%_12m_TSP</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1194,6 +1284,28 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Volume de Tanque de Pulverização [L]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1212,6 +1324,28 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Capacidade Operacional Máxima [ha/h]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1226,6 +1360,36 @@
         <c:idx val="0"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="8"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="9"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.83148066239316243"/>
+          <c:y val="0.30437968750000005"/>
+          <c:w val="0.16037831196581195"/>
+          <c:h val="0.47495920138888886"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1257,10 +1421,10 @@
       <xdr:rowOff>86360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>266800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>131360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1609,10 +1773,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -1626,9 +1790,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P1" t="s">
         <v>36</v>
       </c>
@@ -1647,9 +1811,9 @@
       <selection sqref="A1:P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1681,7 +1845,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1716,7 +1880,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1742,7 +1906,7 @@
         <v>1.0911</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1768,7 +1932,7 @@
         <v>1.2142999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1794,7 +1958,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1820,7 +1984,7 @@
         <v>1.3608000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1846,7 +2010,7 @@
         <v>1.4106999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1872,7 +2036,7 @@
         <v>1.4489000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1898,7 +2062,7 @@
         <v>1.4810000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1924,7 +2088,7 @@
         <v>1.5074000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1950,7 +2114,7 @@
         <v>1.5284</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1976,7 +2140,7 @@
         <v>1.5459000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -2002,7 +2166,7 @@
         <v>1.5626</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -2028,7 +2192,7 @@
         <v>1.5739000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -2054,7 +2218,7 @@
         <v>1.5861000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -2080,7 +2244,7 @@
         <v>1.5981999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -2106,7 +2270,7 @@
         <v>1.6054999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -2132,7 +2296,7 @@
         <v>1.6145000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -2158,7 +2322,7 @@
         <v>1.621</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -2198,9 +2362,9 @@
       <selection sqref="A1:P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2232,7 +2396,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2267,7 +2431,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2293,7 +2457,7 @@
         <v>1.6846000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2319,7 +2483,7 @@
         <v>1.7825</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2345,7 +2509,7 @@
         <v>1.8451</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -2371,7 +2535,7 @@
         <v>1.8866000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -2397,7 +2561,7 @@
         <v>1.9198</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -2423,7 +2587,7 @@
         <v>1.9420999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -2449,7 +2613,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -2475,7 +2639,7 @@
         <v>1.9772000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -2501,7 +2665,7 @@
         <v>1.9863999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -2527,7 +2691,7 @@
         <v>1.9972000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -2553,7 +2717,7 @@
         <v>2.0057999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -2579,7 +2743,7 @@
         <v>2.0139</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -2605,7 +2769,7 @@
         <v>2.0156000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -2631,7 +2795,7 @@
         <v>2.0213999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -2657,7 +2821,7 @@
         <v>2.0257000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -2683,7 +2847,7 @@
         <v>2.0261999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -2709,7 +2873,7 @@
         <v>2.0318999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -2747,9 +2911,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P1" t="s">
         <v>29</v>
       </c>
@@ -2768,9 +2932,9 @@
       <selection sqref="A1:P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2802,7 +2966,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2837,7 +3001,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2863,7 +3027,7 @@
         <v>0.9486</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2889,7 +3053,7 @@
         <v>1.0023</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2915,7 +3079,7 @@
         <v>1.0347</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -2941,7 +3105,7 @@
         <v>1.0581</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -2967,7 +3131,7 @@
         <v>1.0754999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -2993,7 +3157,7 @@
         <v>1.0884</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -3019,7 +3183,7 @@
         <v>1.0992</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -3045,7 +3209,7 @@
         <v>1.1063000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -3071,7 +3235,7 @@
         <v>1.1136999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -3097,7 +3261,7 @@
         <v>1.1194</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -3123,7 +3287,7 @@
         <v>1.1232</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -3149,7 +3313,7 @@
         <v>1.1281000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -3175,7 +3339,7 @@
         <v>1.1309</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -3201,7 +3365,7 @@
         <v>1.1337999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -3227,7 +3391,7 @@
         <v>1.1355999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -3253,7 +3417,7 @@
         <v>1.1387</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -3279,7 +3443,7 @@
         <v>1.1400999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3319,9 +3483,9 @@
       <selection sqref="A1:P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3353,7 +3517,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -3388,7 +3552,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -3414,7 +3578,7 @@
         <v>1.3831</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -3440,7 +3604,7 @@
         <v>1.4944999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -3466,7 +3630,7 @@
         <v>1.5685</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -3492,7 +3656,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -3518,7 +3682,7 @@
         <v>1.6586000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -3544,7 +3708,7 @@
         <v>1.6918</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -3570,7 +3734,7 @@
         <v>1.712</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -3596,7 +3760,7 @@
         <v>1.7342</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -3622,7 +3786,7 @@
         <v>1.7490999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -3648,7 +3812,7 @@
         <v>1.7619</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -3674,7 +3838,7 @@
         <v>1.7738</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -3700,7 +3864,7 @@
         <v>1.7829999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -3726,7 +3890,7 @@
         <v>1.7914000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -3752,7 +3916,7 @@
         <v>1.798</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -3778,7 +3942,7 @@
         <v>1.8013999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -3804,7 +3968,7 @@
         <v>1.8071999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -3830,7 +3994,7 @@
         <v>1.8134000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3868,9 +4032,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P1" t="s">
         <v>32</v>
       </c>
@@ -3887,9 +4051,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P1" t="s">
         <v>33</v>
       </c>
@@ -3908,9 +4072,9 @@
       <selection sqref="A1:P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3942,7 +4106,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -3977,7 +4141,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -4003,7 +4167,7 @@
         <v>1.2078</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -4029,7 +4193,7 @@
         <v>1.3274999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -4055,7 +4219,7 @@
         <v>1.4077999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -4081,7 +4245,7 @@
         <v>1.4644999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -4107,7 +4271,7 @@
         <v>1.5093000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -4133,7 +4297,7 @@
         <v>1.5455000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -4159,7 +4323,7 @@
         <v>1.5739000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -4185,7 +4349,7 @@
         <v>1.5960000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -4211,7 +4375,7 @@
         <v>1.6146</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -4237,7 +4401,7 @@
         <v>1.631</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -4263,7 +4427,7 @@
         <v>1.6432</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -4289,7 +4453,7 @@
         <v>1.6549</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -4315,7 +4479,7 @@
         <v>1.6659999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -4341,7 +4505,7 @@
         <v>1.6743999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -4367,7 +4531,7 @@
         <v>1.6818</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -4393,7 +4557,7 @@
         <v>1.6898</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -4419,7 +4583,7 @@
         <v>1.6930000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -4457,9 +4621,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P1" t="s">
         <v>35</v>
       </c>
